--- a/biology/Zoologie/Ceriantheopsis_zealandiaensis/Ceriantheopsis_zealandiaensis.xlsx
+++ b/biology/Zoologie/Ceriantheopsis_zealandiaensis/Ceriantheopsis_zealandiaensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ceriantheopsis zealandiaensis est une espèce de cnidaires de la famille des Cerianthidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ceriantheopsis zealandiaensis est une espèce de cnidaires de la famille des Cerianthidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Ceriantheopsis zealandiaensis a été décrite en 2020 par Sérgio N. Stampar (d), Sadie Mills (d) et Stephen J. Keable (d)[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Ceriantheopsis zealandiaensis a été décrite en 2020 par Sérgio N. Stampar (d), Sadie Mills (d) et Stephen J. Keable (d),.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son épithète spécifique, zealandiaensis, composée de zealandia et du suffixe latin -ensis, « qui vit dans, qui habite », fait référence à Zealandia, l'ancien continent où ont été trouvés les spécimens[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son épithète spécifique, zealandiaensis, composée de zealandia et du suffixe latin -ensis, « qui vit dans, qui habite », fait référence à Zealandia, l'ancien continent où ont été trouvés les spécimens.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) Sérgio N. Stampar, V. Sadie Mills et Stephen J. Keable, « Ceriantharia (Cnidaria) from Australia, New Zealand and Antarctica with descriptions of four new species », Records of the Australian Museum, Sydney, Australian Museum et inconnu, vol. 72, no 3,‎ 29 juillet 2020, p. 81-100 (ISSN 0067-1975 et 2201-4349, OCLC 1385608, DOI 10.3853/J.2201-4349.72.2020.1762, lire en ligne)</t>
         </is>
